--- a/biology/Médecine/Établissement_public_de_santé_Paul-Guiraud/Établissement_public_de_santé_Paul-Guiraud.xlsx
+++ b/biology/Médecine/Établissement_public_de_santé_Paul-Guiraud/Établissement_public_de_santé_Paul-Guiraud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tablissement_public_de_sant%C3%A9_Paul-Guiraud</t>
+          <t>Établissement_public_de_santé_Paul-Guiraud</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’Établissement public de santé Paul-Guiraud (ou EPS Paul-Guiraud Villejuif - PGV) est un centre hospitalier spécialisé en psychiatrie, situé à Villejuif dans le Val-de-Marne, en France. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tablissement_public_de_sant%C3%A9_Paul-Guiraud</t>
+          <t>Établissement_public_de_santé_Paul-Guiraud</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,15 +524,87 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Il est construit entre 1882 et 1889 sur les plans de l'architecte Henri Maréchal,  et en 1883, le cimetière des Pommiers lui est adjoint. Il accueille ses premiers malades en 1884, et est successivement agrandi en 1899, 1910 et 1934.
-Autrefois appelé « asile de Villejuif », puis « hôpital psychiatrique de Villejuif » à partir de 1937, il est rebaptisé en 1990 en l'honneur du psychiatre Paul Guiraud, chef de service de l'hôpital[1]. 
-Il abrite notamment une unité pour malades difficiles (UMD) créée en 1902 par le psychiatre Henri Colin[1],[2] et alors connue sous le nom de "quartier de sûreté" ou de "troisième section"[3].
-Patients de l'asile de Villejuif
-Louis Rimbault, membre de la bande à Bonnot, y a séjourné.
-Médecins de l'asile de Villejuif
-Paul Sérieux
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est construit entre 1882 et 1889 sur les plans de l'architecte Henri Maréchal,  et en 1883, le cimetière des Pommiers lui est adjoint. Il accueille ses premiers malades en 1884, et est successivement agrandi en 1899, 1910 et 1934.
+Autrefois appelé « asile de Villejuif », puis « hôpital psychiatrique de Villejuif » à partir de 1937, il est rebaptisé en 1990 en l'honneur du psychiatre Paul Guiraud, chef de service de l'hôpital. 
+Il abrite notamment une unité pour malades difficiles (UMD) créée en 1902 par le psychiatre Henri Colin, et alors connue sous le nom de "quartier de sûreté" ou de "troisième section".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Établissement_public_de_santé_Paul-Guiraud</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tablissement_public_de_sant%C3%A9_Paul-Guiraud</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Patients de l'asile de Villejuif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis Rimbault, membre de la bande à Bonnot, y a séjourné.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Établissement_public_de_santé_Paul-Guiraud</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tablissement_public_de_sant%C3%A9_Paul-Guiraud</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Médecins de l'asile de Villejuif</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Paul Sérieux
 Joseph Rogues de Fursac
 Auguste Marie de 1900 à 1920
 Paul Meunier, mieux connu sous son pseudonyme de Marcel Réja
